--- a/main/static/records/Grade8.xlsx
+++ b/main/static/records/Grade8.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t xml:space="preserve">RFID NUMBER</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0217</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007178777</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t xml:space="preserve">09482741497</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0068</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007178772</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t xml:space="preserve">09283537188</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0027</t>
+  </si>
+  <si>
     <t xml:space="preserve">Galimba</t>
   </si>
   <si>
@@ -127,6 +136,9 @@
     <t xml:space="preserve">09478963815</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0255</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007178699</t>
   </si>
   <si>
@@ -148,6 +160,9 @@
     <t xml:space="preserve">09478293260</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0201</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007178705</t>
   </si>
   <si>
@@ -185,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve">09163311562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-0063</t>
   </si>
 </sst>
 </file>
@@ -299,7 +317,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -320,6 +338,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -332,6 +354,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,6 +366,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -348,12 +378,20 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -483,22 +521,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3:H8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.6632653061224"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.5816326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,174 +587,193 @@
       <c r="H2" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I3" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>28</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I4" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>34</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="13" t="s">
         <v>47</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>54</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I8" s="12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2"/>
@@ -736,12 +793,12 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
@@ -754,73 +811,73 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="11"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="11"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="11"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="11"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="11"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="11"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="11"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
@@ -828,89 +885,89 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="16"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G6:G8">
